--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3208202.786431625</v>
+        <v>3202462.671723407</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359936</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>58.73586516321095</v>
+        <v>162.9947207958794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174308</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>18.35890411120626</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>125.1594149553327</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100829</v>
+        <v>59.24433418100828</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8277303080854972</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>4.061627621224371</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3153692344725</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848774</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731836</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>99.55849178710167</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>250.0669030121998</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>163.0915657041714</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>120.4120358099647</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>144.1808171872107</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>369.5012845238444</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.0020113488502</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>18.3768222575565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110.2680713042664</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>11.86500745150081</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.27259203479552</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2061,13 +2061,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>61.82506582311176</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>114.7583044808226</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,16 +2532,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>181.4211934102654</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>241.1325567395866</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>77.40393689813754</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>27.63355479238479</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>111.9325748087725</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>128.2808324720647</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>147.8368914671398</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396215</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>35.19569619650072</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>46.33554688529078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>36.15999212057523</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>218.0760721928408</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3793,13 +3793,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.5849346967025</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>198.4011868502815</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292687</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4036,10 +4036,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.7376190812791</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>148.7244178616422</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1651.829352896823</v>
+        <v>1795.940509280693</v>
       </c>
       <c r="C2" t="n">
-        <v>1651.829352896823</v>
+        <v>1426.977992340281</v>
       </c>
       <c r="D2" t="n">
-        <v>1651.829352896823</v>
+        <v>1426.977992340281</v>
       </c>
       <c r="E2" t="n">
-        <v>1266.041100298579</v>
+        <v>1041.189739742037</v>
       </c>
       <c r="F2" t="n">
-        <v>855.0551955089716</v>
+        <v>630.2038349524291</v>
       </c>
       <c r="G2" t="n">
-        <v>436.8015188872923</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="H2" t="n">
-        <v>106.6381829442159</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
         <v>47.30902621369983</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015911</v>
+        <v>138.9642385015909</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060715</v>
+        <v>397.0764468060713</v>
       </c>
       <c r="L2" t="n">
         <v>769.56409259272</v>
@@ -4354,28 +4354,28 @@
         <v>2365.451310684991</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804443</v>
+        <v>2365.451310684991</v>
       </c>
       <c r="S2" t="n">
-        <v>2292.214167804443</v>
+        <v>2365.451310684991</v>
       </c>
       <c r="T2" t="n">
-        <v>2292.214167804443</v>
+        <v>2145.54774421134</v>
       </c>
       <c r="U2" t="n">
-        <v>2038.429192960945</v>
+        <v>2127.003396624263</v>
       </c>
       <c r="V2" t="n">
-        <v>2038.429192960945</v>
+        <v>1795.940509280693</v>
       </c>
       <c r="W2" t="n">
-        <v>2038.429192960945</v>
+        <v>1795.940509280693</v>
       </c>
       <c r="X2" t="n">
-        <v>2038.429192960945</v>
+        <v>1795.940509280693</v>
       </c>
       <c r="Y2" t="n">
-        <v>2038.429192960945</v>
+        <v>1795.940509280693</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.3222662182066</v>
+        <v>643.6546745992262</v>
       </c>
       <c r="C3" t="n">
-        <v>667.8692369370796</v>
+        <v>469.2016453180992</v>
       </c>
       <c r="D3" t="n">
-        <v>518.9348272758283</v>
+        <v>320.2672356568479</v>
       </c>
       <c r="E3" t="n">
-        <v>359.6973722703728</v>
+        <v>320.2672356568479</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>173.7326776837329</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="I3" t="n">
         <v>47.30902621369983</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369983</v>
+        <v>108.2048630683011</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422607</v>
+        <v>338.9063907138132</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852937</v>
+        <v>710.5174612568462</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874828</v>
+        <v>1196.149274459035</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030031</v>
+        <v>1710.341330101584</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119903</v>
+        <v>2114.310927191456</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695912</v>
+        <v>2365.451310684991</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.451310684991</v>
@@ -4439,22 +4439,22 @@
         <v>2144.554785926784</v>
       </c>
       <c r="T3" t="n">
-        <v>2143.718694706496</v>
+        <v>1945.051103087515</v>
       </c>
       <c r="U3" t="n">
-        <v>1915.538867168706</v>
+        <v>1716.871275549725</v>
       </c>
       <c r="V3" t="n">
-        <v>1680.386758936963</v>
+        <v>1481.719167317983</v>
       </c>
       <c r="W3" t="n">
-        <v>1426.149402208761</v>
+        <v>1227.481810589781</v>
       </c>
       <c r="X3" t="n">
-        <v>1218.297902003229</v>
+        <v>1019.630310384248</v>
       </c>
       <c r="Y3" t="n">
-        <v>1010.537603238275</v>
+        <v>811.8700116192942</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>574.5343321664196</v>
+        <v>514.2749421363355</v>
       </c>
       <c r="C4" t="n">
-        <v>574.5343321664196</v>
+        <v>345.3387592084287</v>
       </c>
       <c r="D4" t="n">
-        <v>574.5343321664196</v>
+        <v>195.222119796093</v>
       </c>
       <c r="E4" t="n">
-        <v>574.5343321664196</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="F4" t="n">
-        <v>570.4316780035667</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="G4" t="n">
-        <v>401.3018527029674</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="H4" t="n">
-        <v>242.3974393348133</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="I4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="J4" t="n">
         <v>47.30902621369983</v>
@@ -4500,40 +4500,40 @@
         <v>322.3541198950603</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896748</v>
+        <v>449.7398382896749</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885938</v>
+        <v>551.3848716885939</v>
       </c>
       <c r="P4" t="n">
-        <v>614.83907525462</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="Q4" t="n">
-        <v>574.5343321664196</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="R4" t="n">
-        <v>574.5343321664196</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="S4" t="n">
-        <v>574.5343321664196</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="T4" t="n">
-        <v>574.5343321664196</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="U4" t="n">
-        <v>574.5343321664196</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="V4" t="n">
-        <v>574.5343321664196</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="W4" t="n">
-        <v>574.5343321664196</v>
+        <v>514.2749421363355</v>
       </c>
       <c r="X4" t="n">
-        <v>574.5343321664196</v>
+        <v>514.2749421363355</v>
       </c>
       <c r="Y4" t="n">
-        <v>574.5343321664196</v>
+        <v>514.2749421363355</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.781606227855</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>460.0017891507292</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2477.381446291977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2477.381446291977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2477.381446291977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2477.381446291977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2477.381446291977</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2477.381446291977</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>2477.381446291977</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.9282174162495</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C7" t="n">
-        <v>404.9282174162495</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="D7" t="n">
-        <v>404.9282174162495</v>
+        <v>175.5713008203288</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9282174162495</v>
+        <v>175.5713008203288</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>175.5713008203288</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>404.9282174162495</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>404.9282174162495</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>404.9282174162495</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>404.9282174162495</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.9282174162495</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.5492509541</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406938</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1981.825876242509</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1629.057220972395</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>709.5665374816297</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5035,58 +5035,58 @@
         <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807097</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>540.4807149410336</v>
+        <v>721.4017538805575</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4807149410336</v>
+        <v>552.4655709526506</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>402.3489315403149</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>254.4358379579218</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>107.5458904600114</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5205,13 +5205,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1644.746393431758</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V13" t="n">
-        <v>1390.061905225871</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W13" t="n">
-        <v>1100.644735188911</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="X13" t="n">
-        <v>872.6551842908934</v>
+        <v>903.0502187107973</v>
       </c>
       <c r="Y13" t="n">
-        <v>651.8626051473633</v>
+        <v>903.0502187107973</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5284,22 +5284,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.9597618327374</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1899.502464049355</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1899.502464049355</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1899.502464049355</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1899.502464049355</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1644.817975843468</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>1355.400805806507</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>1355.400805806507</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.608226662977</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5494,13 +5494,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5521,22 +5521,22 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>1770.231306037953</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N17" t="n">
-        <v>2749.9835782646</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.5459590456827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.788099626699</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.338538189213</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>1191.338538189213</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>970.5459590456827</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5755,43 +5755,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L20" t="n">
-        <v>1586.925993846823</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2120.457898518747</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.23671557753</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>729.2066409118285</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057174</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1359.637235783616</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1359.637235783616</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1131.647684885598</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>910.8551057420682</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5989,28 +5989,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O23" t="n">
-        <v>3944.053400686433</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P23" t="n">
-        <v>4338.827767043611</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3550.914897226846</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>3381.978714298939</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>3231.862074886603</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>3231.862074886603</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>3084.972127388693</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246547</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.599222816073</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>4364.599222816073</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>4181.345492098633</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>4181.345492098633</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="X25" t="n">
-        <v>3953.355941200616</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>3732.563362057086</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,19 +6229,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>864.5728002389885</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1729.091615892343</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2707.641918722172</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.420735780954</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6308,10 +6308,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>511.9395339702917</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C28" t="n">
-        <v>343.0033510423848</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D28" t="n">
-        <v>192.8867116300491</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6417,19 +6417,19 @@
         <v>1764.65758193153</v>
       </c>
       <c r="U28" t="n">
-        <v>1686.471787084927</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V28" t="n">
-        <v>1431.78729887904</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W28" t="n">
-        <v>1142.370128842079</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X28" t="n">
-        <v>914.3805779440615</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y28" t="n">
-        <v>693.5879988005314</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,25 +6466,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>1770.231306037953</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2749.9835782646</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3629.948228594054</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>674.3568109459524</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>674.3568109459524</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>524.2401715336166</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>376.3270779512235</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>376.3270779512235</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>208.6242413259424</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V31" t="n">
-        <v>1412.556111024461</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W31" t="n">
-        <v>1123.1389409875</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X31" t="n">
-        <v>895.1493900894825</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y31" t="n">
-        <v>674.3568109459524</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,25 +6703,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>753.1470291944245</v>
       </c>
       <c r="L32" t="n">
-        <v>1518.899775139038</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M32" t="n">
-        <v>2497.450077968866</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N32" t="n">
-        <v>3044.228895027648</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6782,7 +6782,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320243</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>410.7144041584436</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1585.246657273078</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1330.562169067191</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1041.144999030231</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>813.1554481322135</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>592.3628689886833</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622689</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294614</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353396</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7013,16 +7013,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.9597618327374</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C37" t="n">
-        <v>784.0235789048305</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="D37" t="n">
-        <v>633.9069394924948</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="E37" t="n">
-        <v>485.9938459101016</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="F37" t="n">
-        <v>339.1038984121913</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7125,22 +7125,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1717.853999219115</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1463.169511013228</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.752340976268</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>1173.752340976268</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>952.9597618327374</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="38">
@@ -7159,7 +7159,7 @@
         <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.2139837551626</v>
@@ -7168,34 +7168,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
-        <v>2047.844055175504</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>3027.596327402151</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>3907.560977731605</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4302.335344088783</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7259,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>301.0224619425389</v>
+        <v>529.525731183237</v>
       </c>
       <c r="C40" t="n">
-        <v>132.086279014632</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D40" t="n">
-        <v>132.086279014632</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E40" t="n">
-        <v>132.086279014632</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7362,22 +7362,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.65758193153</v>
+        <v>1544.378721130681</v>
       </c>
       <c r="U40" t="n">
-        <v>1475.554715057174</v>
+        <v>1255.275854256324</v>
       </c>
       <c r="V40" t="n">
-        <v>1220.870226851287</v>
+        <v>1000.591366050437</v>
       </c>
       <c r="W40" t="n">
-        <v>931.4530568143261</v>
+        <v>711.1741960134767</v>
       </c>
       <c r="X40" t="n">
-        <v>703.4635059163088</v>
+        <v>711.1741960134767</v>
       </c>
       <c r="Y40" t="n">
-        <v>482.6709267727787</v>
+        <v>711.1741960134767</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,16 +7396,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,25 +7414,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M41" t="n">
-        <v>1770.231306037953</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N41" t="n">
-        <v>2749.9835782646</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7441,22 +7441,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>557.6043516563539</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C43" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.556111024461</v>
+        <v>963.5524031415191</v>
       </c>
       <c r="W43" t="n">
-        <v>1123.1389409875</v>
+        <v>674.1352331045584</v>
       </c>
       <c r="X43" t="n">
-        <v>895.1493900894825</v>
+        <v>446.1456822065411</v>
       </c>
       <c r="Y43" t="n">
-        <v>674.3568109459524</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551628</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089265</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>416.3606924710451</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.293752345675</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M44" t="n">
-        <v>1999.417367126749</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>656.9233744498081</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C46" t="n">
         <v>656.9233744498081</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.890966501056</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V46" t="n">
-        <v>1288.206478295169</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="W46" t="n">
-        <v>998.7893082582084</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="X46" t="n">
-        <v>770.7997573601911</v>
+        <v>1157.734706916684</v>
       </c>
       <c r="Y46" t="n">
-        <v>770.7997573601911</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262982</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>115.1204337631329</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>261.8185614859236</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>55.86574532263776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>67.53663776704059</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>241.9338129178262</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>401.5033668799356</v>
       </c>
       <c r="O17" t="n">
-        <v>231.5010718068643</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L20" t="n">
-        <v>29.61882225792044</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>248.8012738805275</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9886,13 +9886,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>172.4995987156013</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>136.2499899971294</v>
       </c>
       <c r="L32" t="n">
-        <v>130.0020851999083</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>170.1140909277309</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>231.5010718068643</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>400.5976869789383</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.56390887767093</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>154.1608008075274</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>32.65956063525181</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>224.6979325134792</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,19 +24177,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>137.3793388430054</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>70.71644991356263</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>45.39044159700441</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>208.8079013074753</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>258.8894435442062</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>32.82244010554824</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>91.26811680410449</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,7 +25092,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.3749467384731</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.5593187178201</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>239.8762913203221</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>109.261055902356</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>1.472877083328399</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.24704548523478</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>53.7364564735465</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.09436110065816</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>69.86023549045257</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>722662.0524754365</v>
+        <v>722662.0524754364</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>722662.0524754365</v>
+        <v>722662.0524754364</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722662.0524754365</v>
+        <v>722662.0524754364</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>722662.0524754364</v>
+        <v>722662.0524754362</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>722662.0524754362</v>
+        <v>722662.0524754364</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722662.0524754364</v>
+        <v>722662.0524754362</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="F2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="G2" t="n">
+        <v>694893.1270522209</v>
+      </c>
+      <c r="H2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="I2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="J2" t="n">
+        <v>694893.1270522207</v>
+      </c>
+      <c r="K2" t="n">
         <v>694893.1270522204</v>
       </c>
-      <c r="F2" t="n">
-        <v>694893.1270522204</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>694893.1270522205</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>694893.1270522205</v>
-      </c>
-      <c r="I2" t="n">
-        <v>694893.1270522204</v>
-      </c>
-      <c r="J2" t="n">
-        <v>694893.1270522204</v>
-      </c>
-      <c r="K2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="L2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="M2" t="n">
-        <v>694893.1270522206</v>
       </c>
       <c r="N2" t="n">
         <v>694893.1270522205</v>
       </c>
       <c r="O2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="P2" t="n">
         <v>694893.1270522204</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106482</v>
+        <v>493391.6844106483</v>
       </c>
       <c r="C3" t="n">
         <v>91792.63957446891</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="G4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="J4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="J4" t="n">
-        <v>28561.83935289577</v>
-      </c>
       <c r="K4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289568</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289572</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140125</v>
+        <v>76261.10613140126</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-86946.20108684724</v>
+        <v>-86946.20108684758</v>
       </c>
       <c r="C6" t="n">
-        <v>333837.4155303361</v>
+        <v>333837.415530336</v>
       </c>
       <c r="D6" t="n">
-        <v>425630.0551048054</v>
+        <v>425630.0551048052</v>
       </c>
       <c r="E6" t="n">
-        <v>-157429.6445477955</v>
+        <v>-158101.5994500534</v>
       </c>
       <c r="F6" t="n">
-        <v>569947.769445611</v>
+        <v>569275.8145433533</v>
       </c>
       <c r="G6" t="n">
-        <v>569947.7694456112</v>
+        <v>569275.8145433536</v>
       </c>
       <c r="H6" t="n">
-        <v>569947.7694456112</v>
+        <v>569275.8145433534</v>
       </c>
       <c r="I6" t="n">
-        <v>569947.769445611</v>
+        <v>569275.8145433534</v>
       </c>
       <c r="J6" t="n">
-        <v>415221.233762395</v>
+        <v>414549.2788601374</v>
       </c>
       <c r="K6" t="n">
-        <v>548605.6708634106</v>
+        <v>547933.7159611525</v>
       </c>
       <c r="L6" t="n">
-        <v>569947.7694456113</v>
+        <v>569275.8145433533</v>
       </c>
       <c r="M6" t="n">
-        <v>440305.4546066666</v>
+        <v>439633.4997044083</v>
       </c>
       <c r="N6" t="n">
-        <v>569947.7694456112</v>
+        <v>569275.8145433533</v>
       </c>
       <c r="O6" t="n">
-        <v>569947.7694456114</v>
+        <v>569275.8145433534</v>
       </c>
       <c r="P6" t="n">
-        <v>569947.769445611</v>
+        <v>569275.8145433532</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>306.3599178435499</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>104.2588556326685</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174307</v>
       </c>
       <c r="S2" t="n">
         <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>232.8882209838565</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11.5251393657239</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>196.6809157027906</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>141.3594204017069</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>54.30080173848773</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731835</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>186.9645065494893</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>163.7172670085952</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>11.32414710480015</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>46.89776644908618</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>142.1010570547671</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>12.42908554841739</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,25 +27903,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>10.44630900880762</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.2386507606558</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30711,13 +30711,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-5.305834838066916e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672561</v>
+        <v>1.231597659672562</v>
       </c>
       <c r="H2" t="n">
         <v>12.61309953212162</v>
@@ -31050,7 +31050,7 @@
         <v>47.48116877452647</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676341</v>
+        <v>104.5303118676342</v>
       </c>
       <c r="K2" t="n">
         <v>156.6638408015737</v>
@@ -31065,16 +31065,16 @@
         <v>219.7570494095245</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811554</v>
+        <v>207.5103501811555</v>
       </c>
       <c r="P2" t="n">
-        <v>177.105282957989</v>
+        <v>177.1052829579891</v>
       </c>
       <c r="Q2" t="n">
         <v>132.9986917709654</v>
       </c>
       <c r="R2" t="n">
-        <v>77.3643464894066</v>
+        <v>77.36434648940661</v>
       </c>
       <c r="S2" t="n">
         <v>28.06503166978852</v>
@@ -31083,7 +31083,7 @@
         <v>5.39131875521664</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380489</v>
+        <v>0.0985278127738049</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540507</v>
+        <v>0.6589628421540508</v>
       </c>
       <c r="H3" t="n">
         <v>6.364193765014122</v>
@@ -31129,7 +31129,7 @@
         <v>22.6879750478478</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403687</v>
+        <v>62.25753764403689</v>
       </c>
       <c r="K3" t="n">
         <v>106.4080480683583</v>
@@ -31138,7 +31138,7 @@
         <v>143.0787521966504</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247346</v>
+        <v>166.9661552247347</v>
       </c>
       <c r="N3" t="n">
         <v>171.3852525302327</v>
@@ -31147,22 +31147,22 @@
         <v>156.7840232382929</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723818</v>
+        <v>125.8330009723819</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338374</v>
+        <v>84.11602876338375</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163484</v>
+        <v>40.91349997163485</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422106</v>
+        <v>12.23994577422107</v>
       </c>
       <c r="T3" t="n">
         <v>2.656082683945493</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276651</v>
+        <v>0.04335281856276652</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654177</v>
+        <v>0.5524523108654178</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967081</v>
+        <v>4.911803272967082</v>
       </c>
       <c r="I4" t="n">
         <v>16.61374767584366</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818503</v>
+        <v>39.05837837818504</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509125</v>
+        <v>64.18491393509126</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448221</v>
+        <v>82.13459174448222</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502179</v>
+        <v>86.5994108750218</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361439</v>
+        <v>84.5402704436144</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395925</v>
+        <v>78.08662299395927</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230467</v>
+        <v>66.81659585230469</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437603</v>
+        <v>46.26034759437604</v>
       </c>
       <c r="R4" t="n">
         <v>24.84026481400323</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263686</v>
+        <v>9.627737090263688</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515875</v>
+        <v>2.360478055515876</v>
       </c>
       <c r="U4" t="n">
-        <v>0.030133762410841</v>
+        <v>0.03013376241084101</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32080,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33979,13 +33979,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302162</v>
+        <v>92.58102251302165</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277578</v>
+        <v>260.7194023277579</v>
       </c>
       <c r="L2" t="n">
         <v>376.2501472592411</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245395</v>
+        <v>435.4250728245396</v>
       </c>
       <c r="N2" t="n">
         <v>427.6909102249177</v>
       </c>
       <c r="O2" t="n">
-        <v>358.212320022214</v>
+        <v>358.2123200222141</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742021</v>
+        <v>267.6709953742022</v>
       </c>
       <c r="Q2" t="n">
         <v>123.0079925564206</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>61.51094631777903</v>
       </c>
       <c r="K3" t="n">
-        <v>83.68704285713214</v>
+        <v>233.0318461065779</v>
       </c>
       <c r="L3" t="n">
         <v>375.3647177202354</v>
@@ -34795,10 +34795,10 @@
         <v>408.050098070578</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979888</v>
+        <v>253.6771550439752</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920839</v>
+        <v>41.91542210920841</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047983</v>
+        <v>109.7246170047984</v>
       </c>
       <c r="M4" t="n">
         <v>126.1832878368624</v>
@@ -34874,7 +34874,7 @@
         <v>102.6717509079989</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719816</v>
+        <v>64.09515511719817</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>575.5896386552599</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>697.5239273101583</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35664,13 +35664,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35889,25 +35889,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>953.8052022928471</v>
       </c>
       <c r="O17" t="n">
-        <v>739.5540726950834</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L20" t="n">
-        <v>485.2089366502526</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36144,7 +36144,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>585.992560435928</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36606,13 +36606,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36834,7 +36834,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36843,19 +36843,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>571.2615849349731</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>473.4412765525299</v>
       </c>
       <c r="L32" t="n">
-        <v>585.5921995922405</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37308,10 +37308,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400168</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597715</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>420.9083957314504</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37782,19 +37782,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>739.5540726950834</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37803,7 +37803,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>324.040058608738</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>939.5188028091651</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
@@ -38034,13 +38034,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3202462.671723407</v>
+        <v>3205868.162847855</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958794</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174317</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>206.9472277807098</v>
       </c>
       <c r="U2" t="n">
-        <v>18.35890411120626</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>125.1594149553327</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>26.75866868093828</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100828</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>99.558491787101</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>99.55849178710167</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>197.1732082069914</v>
       </c>
       <c r="G5" t="n">
-        <v>250.0669030121998</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>120.4120358099647</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.25292425643924</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>96.36163317610263</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>206.0020113488502</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686237</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.86500745150081</v>
+        <v>60.5320824692825</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,7 +1703,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247745</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>133.2205257453324</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1849,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492404</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346966</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>241.1325567395866</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>118.5885859271017</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>7.601081015447265</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>27.63355479238479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>20.18624009875678</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>128.2808324720647</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>35.19569619650072</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292673</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>218.0760721928408</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>79.49505480544802</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>198.4011868502815</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292687</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>7.730549048947387</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>148.7244178616422</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1795.940509280693</v>
+        <v>1216.562154789577</v>
       </c>
       <c r="C2" t="n">
-        <v>1426.977992340281</v>
+        <v>1216.562154789577</v>
       </c>
       <c r="D2" t="n">
-        <v>1426.977992340281</v>
+        <v>858.2964561828269</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.189739742037</v>
+        <v>472.5082035845826</v>
       </c>
       <c r="F2" t="n">
-        <v>630.2038349524291</v>
+        <v>61.52229879497503</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307498</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015909</v>
+        <v>138.9642385015911</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060713</v>
+        <v>397.0764468060712</v>
       </c>
       <c r="L2" t="n">
-        <v>769.56409259272</v>
+        <v>769.5640925927196</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689014</v>
+        <v>1200.634914689013</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811683</v>
+        <v>1624.048915811682</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633675</v>
+        <v>1978.679112633673</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054135</v>
+        <v>2243.673398054133</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684991</v>
+        <v>2292.214167804441</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684991</v>
+        <v>2109.431301222161</v>
       </c>
       <c r="T2" t="n">
-        <v>2145.54774421134</v>
+        <v>1900.393697403262</v>
       </c>
       <c r="U2" t="n">
-        <v>2127.003396624263</v>
+        <v>1900.393697403262</v>
       </c>
       <c r="V2" t="n">
-        <v>1795.940509280693</v>
+        <v>1569.330810059691</v>
       </c>
       <c r="W2" t="n">
-        <v>1795.940509280693</v>
+        <v>1216.562154789577</v>
       </c>
       <c r="X2" t="n">
-        <v>1795.940509280693</v>
+        <v>1216.562154789577</v>
       </c>
       <c r="Y2" t="n">
-        <v>1795.940509280693</v>
+        <v>1216.562154789577</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>643.6546745992262</v>
+        <v>703.4974363982226</v>
       </c>
       <c r="C3" t="n">
-        <v>469.2016453180992</v>
+        <v>529.0444071170956</v>
       </c>
       <c r="D3" t="n">
-        <v>320.2672356568479</v>
+        <v>380.1099974558443</v>
       </c>
       <c r="E3" t="n">
-        <v>320.2672356568479</v>
+        <v>220.8725424503888</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7326776837329</v>
+        <v>74.33798447727381</v>
       </c>
       <c r="G3" t="n">
-        <v>47.30902621369983</v>
+        <v>74.33798447727381</v>
       </c>
       <c r="H3" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683011</v>
+        <v>108.2048630683009</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138132</v>
+        <v>338.9063907138129</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568462</v>
+        <v>710.5174612568458</v>
       </c>
       <c r="M3" t="n">
         <v>1196.149274459035</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101584</v>
+        <v>1710.341330101583</v>
       </c>
       <c r="O3" t="n">
-        <v>2114.310927191456</v>
+        <v>2058.233162108981</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885993</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926784</v>
+        <v>2204.39754772578</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087515</v>
+        <v>2004.893864886512</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549725</v>
+        <v>1776.714037348722</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317983</v>
+        <v>1541.561929116979</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.481810589781</v>
+        <v>1287.324572388777</v>
       </c>
       <c r="X3" t="n">
-        <v>1019.630310384248</v>
+        <v>1079.473072183245</v>
       </c>
       <c r="Y3" t="n">
-        <v>811.8700116192942</v>
+        <v>871.7127734182907</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>514.2749421363355</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="C4" t="n">
-        <v>345.3387592084287</v>
+        <v>445.9028923267125</v>
       </c>
       <c r="D4" t="n">
-        <v>195.222119796093</v>
+        <v>295.7862529143767</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369983</v>
+        <v>147.8731593319836</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369983</v>
+        <v>147.8731593319836</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181614</v>
+        <v>88.80529410181603</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365665</v>
+        <v>197.4326649365663</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950603</v>
+        <v>322.35411989506</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896749</v>
+        <v>449.7398382896744</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885939</v>
+        <v>551.3848716885933</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546201</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546201</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546201</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546201</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546201</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546201</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546201</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="W4" t="n">
-        <v>514.2749421363355</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="X4" t="n">
-        <v>514.2749421363355</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="Y4" t="n">
-        <v>514.2749421363355</v>
+        <v>614.8390752546194</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1860.708406770826</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999326</v>
+        <v>1133.480191223664</v>
       </c>
       <c r="E5" t="n">
-        <v>466.9472898999326</v>
+        <v>747.6919386254199</v>
       </c>
       <c r="F5" t="n">
-        <v>460.0017891507292</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4628,28 +4628,28 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4664,7 +4664,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326646</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326646</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>175.5713008203288</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E7" t="n">
-        <v>175.5713008203288</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F7" t="n">
-        <v>175.5713008203288</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.45098611979802</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.45098611979802</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.45098611979802</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>478.8522906713811</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1320.24122488254</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>961.9755262757897</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>576.1872736775454</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>165.2013688879378</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>151.2779648265287</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2312.888763586079</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2312.888763586079</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>1981.825876242509</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>1629.057220972395</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>1255.591462711315</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y8" t="n">
-        <v>865.4521307355029</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4874,40 +4874,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5032,7 +5032,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,19 +5041,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5080,7 +5080,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5111,7 +5111,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,19 +5120,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.4017538805575</v>
+        <v>623.6704680167701</v>
       </c>
       <c r="C13" t="n">
-        <v>552.4655709526506</v>
+        <v>454.7342850888632</v>
       </c>
       <c r="D13" t="n">
-        <v>402.3489315403149</v>
+        <v>304.6176456765274</v>
       </c>
       <c r="E13" t="n">
-        <v>254.4358379579218</v>
+        <v>156.7045520941343</v>
       </c>
       <c r="F13" t="n">
-        <v>107.5458904600114</v>
+        <v>156.7045520941343</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814702</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.039769608815</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.039769608815</v>
+        <v>1033.308483745027</v>
       </c>
       <c r="X13" t="n">
-        <v>903.0502187107973</v>
+        <v>805.3189328470098</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.0502187107973</v>
+        <v>805.3189328470098</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5278,46 +5278,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.878731871643</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4299.260038026375</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978493</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>230.1272220699423</v>
       </c>
       <c r="D16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>399.0634049978493</v>
       </c>
     </row>
     <row r="17">
@@ -5500,7 +5500,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5515,22 +5515,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2628.734306600803</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870722</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3763.957685256235</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5609,25 +5609,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,19 +5752,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5995,19 +5995,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1586.925993846824</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518748</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.236715577531</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6068,10 +6068,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320242</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W25" t="n">
-        <v>665.7049150474453</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="X25" t="n">
-        <v>665.7049150474453</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039152</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="26">
@@ -6220,31 +6220,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1079.910504880668</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1530.944718129077</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6281,64 +6281,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.5269503710301</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C28" t="n">
-        <v>393.5907674431232</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057174</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1220.870226851287</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1192.957545242817</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>964.9679943448</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.1754152012699</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736754</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C31" t="n">
         <v>263.2638710736754</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1545.250526232427</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1256.147659358071</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1001.463171152184</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>712.0460011152229</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>484.0564502172056</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>263.2638710736754</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>753.1470291944245</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1617.665844847779</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2151.197749519704</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.950021746351</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6785,7 +6785,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6940,16 +6940,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6964,25 +6964,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>300.048425655595</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C37" t="n">
-        <v>131.1122427276881</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D37" t="n">
-        <v>131.1122427276881</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E37" t="n">
-        <v>131.1122427276881</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F37" t="n">
-        <v>131.1122427276881</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G37" t="n">
-        <v>131.1122427276881</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.6968904858347</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749765</v>
@@ -7162,13 +7162,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089265</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7204,22 +7204,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,64 +7229,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>529.525731183237</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C40" t="n">
-        <v>360.5895482553301</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D40" t="n">
-        <v>360.5895482553301</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E40" t="n">
-        <v>360.5895482553301</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7362,22 +7362,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1544.378721130681</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1255.275854256324</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1000.591366050437</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>711.1741960134767</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>711.1741960134767</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>711.1741960134767</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,25 +7414,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L41" t="n">
-        <v>1586.925993846824</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2120.457898518748</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.236715577531</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7441,22 +7441,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>264.4972173763014</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>963.5524031415191</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>674.1352331045584</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>446.1456822065411</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y43" t="n">
-        <v>446.1456822065411</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551628</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089265</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>416.3606924710451</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K44" t="n">
-        <v>750.1800661608916</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L44" t="n">
-        <v>1614.698881814246</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M44" t="n">
-        <v>2593.249184644075</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N44" t="n">
-        <v>3573.001456870722</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E45" t="n">
         <v>487.9678785494859</v>
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>825.859557377715</v>
+        <v>590.1253288168953</v>
       </c>
       <c r="C46" t="n">
-        <v>656.9233744498081</v>
+        <v>421.1891458889884</v>
       </c>
       <c r="D46" t="n">
-        <v>506.8067350374723</v>
+        <v>271.0725064766526</v>
       </c>
       <c r="E46" t="n">
-        <v>506.8067350374723</v>
+        <v>271.0725064766526</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>271.0725064766526</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>103.3696698513716</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U46" t="n">
-        <v>1385.724257814702</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V46" t="n">
-        <v>1385.724257814702</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W46" t="n">
-        <v>1385.724257814702</v>
+        <v>1220.555923688682</v>
       </c>
       <c r="X46" t="n">
-        <v>1157.734706916684</v>
+        <v>992.5663727906651</v>
       </c>
       <c r="Y46" t="n">
-        <v>1007.508022207955</v>
+        <v>771.773793647135</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>337.2181121227152</v>
       </c>
       <c r="P3" t="n">
-        <v>261.8185614859236</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.86574532263776</v>
+        <v>55.86574532263788</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.044284299266</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8692,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>173.2204606877393</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>401.5033668799356</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>315.1679217109336</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>297.2174916798473</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>136.2499899971294</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -11062,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L41" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>133.2530576400255</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>154.1608008075274</v>
+        <v>105.4937257897457</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>15.39494727287993</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270133</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>75.50340795434053</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>45.39044159700441</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>107.1210694619354</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>159.6457400831806</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>258.8894435442062</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>159.6457400831805</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>91.26811680410449</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>109.5593187178201</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>21.59472895491405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.472877083328399</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>69.12041821276433</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>53.7364564735465</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>137.0244658653734</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.86023549045257</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>722662.0524754364</v>
+        <v>722662.0524754365</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722662.0524754364</v>
+        <v>722662.0524754365</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>722662.0524754365</v>
+        <v>722662.0524754364</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>722662.0524754362</v>
+        <v>722662.0524754365</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722662.0524754362</v>
+        <v>722662.0524754364</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>722662.0524754365</v>
+        <v>722662.0524754364</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>718411.5486312476</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312477</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312479</v>
-      </c>
       <c r="E2" t="n">
+        <v>694893.1270522202</v>
+      </c>
+      <c r="F2" t="n">
+        <v>694893.1270522203</v>
+      </c>
+      <c r="G2" t="n">
+        <v>694893.1270522203</v>
+      </c>
+      <c r="H2" t="n">
+        <v>694893.1270522204</v>
+      </c>
+      <c r="I2" t="n">
+        <v>694893.1270522207</v>
+      </c>
+      <c r="J2" t="n">
         <v>694893.1270522206</v>
       </c>
-      <c r="F2" t="n">
-        <v>694893.1270522205</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>694893.1270522209</v>
-      </c>
-      <c r="H2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="I2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="J2" t="n">
-        <v>694893.1270522207</v>
-      </c>
-      <c r="K2" t="n">
-        <v>694893.1270522204</v>
       </c>
       <c r="L2" t="n">
         <v>694893.1270522205</v>
       </c>
       <c r="M2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="N2" t="n">
+        <v>694893.1270522204</v>
+      </c>
+      <c r="O2" t="n">
         <v>694893.1270522205</v>
       </c>
-      <c r="N2" t="n">
-        <v>694893.1270522205</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>694893.1270522206</v>
-      </c>
-      <c r="P2" t="n">
-        <v>694893.1270522204</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106483</v>
+        <v>493391.6844106477</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446891</v>
+        <v>91792.63957446927</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.535683216</v>
+        <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220075</v>
+        <v>21342.09858220084</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760456</v>
+        <v>235704.9591760458</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,25 +26426,25 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="J4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289575</v>
@@ -26459,7 +26459,7 @@
         <v>28561.83935289575</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289575</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140126</v>
+        <v>76261.10613140122</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-86946.20108684758</v>
+        <v>-86946.20108684716</v>
       </c>
       <c r="C6" t="n">
-        <v>333837.415530336</v>
+        <v>333837.4155303359</v>
       </c>
       <c r="D6" t="n">
-        <v>425630.0551048052</v>
+        <v>425630.0551048049</v>
       </c>
       <c r="E6" t="n">
-        <v>-158101.5994500534</v>
+        <v>-157496.8400380216</v>
       </c>
       <c r="F6" t="n">
-        <v>569275.8145433533</v>
+        <v>569880.5739553851</v>
       </c>
       <c r="G6" t="n">
-        <v>569275.8145433536</v>
+        <v>569880.5739553851</v>
       </c>
       <c r="H6" t="n">
-        <v>569275.8145433534</v>
+        <v>569880.5739553852</v>
       </c>
       <c r="I6" t="n">
-        <v>569275.8145433534</v>
+        <v>569880.5739553855</v>
       </c>
       <c r="J6" t="n">
-        <v>414549.2788601374</v>
+        <v>415154.0382721695</v>
       </c>
       <c r="K6" t="n">
-        <v>547933.7159611525</v>
+        <v>548538.4753731849</v>
       </c>
       <c r="L6" t="n">
-        <v>569275.8145433533</v>
+        <v>569880.5739553854</v>
       </c>
       <c r="M6" t="n">
-        <v>439633.4997044083</v>
+        <v>440238.2591164406</v>
       </c>
       <c r="N6" t="n">
-        <v>569275.8145433533</v>
+        <v>569880.5739553852</v>
       </c>
       <c r="O6" t="n">
-        <v>569275.8145433534</v>
+        <v>569880.5739553854</v>
       </c>
       <c r="P6" t="n">
-        <v>569275.8145433532</v>
+        <v>569880.5739553855</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435499</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712478</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435499</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353678</v>
+        <v>71.38374637353706</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712478</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330777</v>
+        <v>82.92444508330811</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712478</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330777</v>
+        <v>82.92444508330811</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712478</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330777</v>
+        <v>82.92444508330811</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174307</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164568</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>10.75730302820492</v>
       </c>
       <c r="U2" t="n">
-        <v>232.8882209838565</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11.5251393657239</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>79.11258179054406</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356728</v>
+        <v>66.70865780356731</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100833</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>67.88003526049233</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
@@ -27560,7 +27560,7 @@
         <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848773</v>
+        <v>54.30080173848779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731835</v>
+        <v>39.90169565731841</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>186.9645065494893</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>209.70283753472</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>163.7172670085952</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>46.89776644908618</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>19.94703493209776</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>227.5611395882545</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44630900880762</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -30717,7 +30717,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-5.305834838066916e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672562</v>
+        <v>1.23159765967256</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212162</v>
+        <v>12.61309953212161</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452647</v>
+        <v>47.48116877452641</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676342</v>
+        <v>104.530311867634</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015737</v>
+        <v>156.6638408015735</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787779</v>
+        <v>194.3553476787777</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589798</v>
+        <v>216.2577725589796</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095245</v>
+        <v>219.7570494095242</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811555</v>
+        <v>207.5103501811552</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579891</v>
+        <v>177.1052829579888</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709654</v>
+        <v>132.9986917709653</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940661</v>
+        <v>77.36434648940651</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978852</v>
+        <v>28.06503166978849</v>
       </c>
       <c r="T2" t="n">
-        <v>5.39131875521664</v>
+        <v>5.391318755216634</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0985278127738049</v>
+        <v>0.09852781277380478</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540508</v>
+        <v>0.6589628421540499</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014122</v>
+        <v>6.364193765014114</v>
       </c>
       <c r="I3" t="n">
-        <v>22.6879750478478</v>
+        <v>22.68797504784778</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403689</v>
+        <v>62.2575376440368</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683583</v>
+        <v>106.4080480683581</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966504</v>
+        <v>143.0787521966502</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247347</v>
+        <v>166.9661552247345</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302327</v>
+        <v>171.3852525302325</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382929</v>
+        <v>156.7840232382927</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723819</v>
+        <v>125.8330009723817</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338375</v>
+        <v>84.11602876338364</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163485</v>
+        <v>40.9134999716348</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422107</v>
+        <v>12.23994577422105</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945493</v>
+        <v>2.65608268394549</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276652</v>
+        <v>0.04335281856276646</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654178</v>
+        <v>0.5524523108654171</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967082</v>
+        <v>4.911803272967076</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584366</v>
+        <v>16.61374767584364</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818504</v>
+        <v>39.05837837818498</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509126</v>
+        <v>64.18491393509117</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448222</v>
+        <v>82.13459174448211</v>
       </c>
       <c r="M4" t="n">
-        <v>86.5994108750218</v>
+        <v>86.59941087502169</v>
       </c>
       <c r="N4" t="n">
-        <v>84.5402704436144</v>
+        <v>84.54027044361429</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395927</v>
+        <v>78.08662299395917</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230469</v>
+        <v>66.8165958523046</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437604</v>
+        <v>46.26034759437597</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400323</v>
+        <v>24.8402648140032</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263688</v>
+        <v>9.627737090263674</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515876</v>
+        <v>2.360478055515872</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084101</v>
+        <v>0.03013376241084097</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302165</v>
+        <v>92.58102251302151</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277579</v>
+        <v>260.7194023277577</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592411</v>
+        <v>376.2501472592409</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245396</v>
+        <v>435.4250728245393</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249177</v>
+        <v>427.6909102249175</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222141</v>
+        <v>358.2123200222138</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742022</v>
+        <v>267.6709953742019</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564206</v>
+        <v>123.0079925564204</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777903</v>
+        <v>61.51094631777895</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065779</v>
+        <v>233.0318461065777</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202354</v>
+        <v>375.3647177202351</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527163</v>
+        <v>490.537185052716</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904529</v>
+        <v>519.3859147904527</v>
       </c>
       <c r="O3" t="n">
-        <v>408.050098070578</v>
+        <v>351.4058909165635</v>
       </c>
       <c r="P3" t="n">
-        <v>253.6771550439752</v>
+        <v>310.3213621979886</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920841</v>
+        <v>41.91542210920832</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047984</v>
+        <v>109.7246170047982</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368624</v>
+        <v>126.1832878368623</v>
       </c>
       <c r="N4" t="n">
-        <v>128.672442822843</v>
+        <v>128.6724428228429</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079989</v>
+        <v>102.6717509079988</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719817</v>
+        <v>64.09515511719809</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814171</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>424.0147654914588</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>953.8052022928471</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>713.9299079303053</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,13 +36372,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>634.4087782352478</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>473.4412765525299</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37308,7 +37308,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37782,10 +37782,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L41" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37803,7 +37803,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>324.040058608738</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
